--- a/dashboard/data/Dashboard.xlsx
+++ b/dashboard/data/Dashboard.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,32 +466,62 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>deltaC_Structural_Ops</t>
+          <t>deltaC_Structural_Ops_x</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>deltaC_Engine_Ops</t>
+          <t>deltaC_Engine_Ops_x</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>deltaC_Aerodyn_Ops</t>
+          <t>deltaC_Aerodyn_Ops_x</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>deltaC_SLF_Ops</t>
+          <t>deltaC_SLF_Ops_x</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>deltaC_Res_Ops</t>
+          <t>deltaC_Res_Ops_x</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>deltaC_Tot_Ops</t>
+          <t>deltaC_Tot_Ops_x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>deltaC_Structural_Ops_y</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>deltaC_Engine_Ops_y</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>deltaC_Aerodyn_Ops_y</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>deltaC_SLF_Ops_y</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>deltaC_Res_Ops_y</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>deltaC_Tot_Ops_y</t>
         </is>
       </c>
     </row>
@@ -532,6 +562,24 @@
       <c r="L2" t="n">
         <v>8.073280334472656</v>
       </c>
+      <c r="M2" t="n">
+        <v>3.268622223069845</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7.877647154853416</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.1507646077984699</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.881874162239546</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-6.80422066820418</v>
+      </c>
+      <c r="R2" t="n">
+        <v>8.073158264160156</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -570,6 +618,24 @@
       <c r="L3" t="n">
         <v>15.88521957397461</v>
       </c>
+      <c r="M3" t="n">
+        <v>6.466640720290455</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15.13539366646495</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.2880077969863691</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.824345877457937</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-7.253404663271889</v>
+      </c>
+      <c r="R3" t="n">
+        <v>15.88496780395508</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -608,6 +674,24 @@
       <c r="L4" t="n">
         <v>23.46746444702148</v>
       </c>
+      <c r="M4" t="n">
+        <v>9.575599516507642</v>
+      </c>
+      <c r="N4" t="n">
+        <v>21.83552172966804</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.4075947384729067</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-5.806107792375082</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-1.730270888179259</v>
+      </c>
+      <c r="R4" t="n">
+        <v>23.46714782714844</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -646,6 +730,24 @@
       <c r="L5" t="n">
         <v>30.84774398803711</v>
       </c>
+      <c r="M5" t="n">
+        <v>12.5828171112077</v>
+      </c>
+      <c r="N5" t="n">
+        <v>28.02937477371406</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.5057201708858573</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-9.473546607797758</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.2144107091915419</v>
+      </c>
+      <c r="R5" t="n">
+        <v>30.84733581542969</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -684,6 +786,24 @@
       <c r="L6" t="n">
         <v>38.04994964599609</v>
       </c>
+      <c r="M6" t="n">
+        <v>15.47972474431084</v>
+      </c>
+      <c r="N6" t="n">
+        <v>33.7603506961403</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.5788376506167892</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-9.423124895198374</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-1.188590494733637</v>
+      </c>
+      <c r="R6" t="n">
+        <v>38.04952239990234</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -722,6 +842,24 @@
       <c r="L7" t="n">
         <v>45.09444046020508</v>
       </c>
+      <c r="M7" t="n">
+        <v>18.26067782944908</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39.06576950875672</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.62360787015249</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-4.851248913003074</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-6.757623117306094</v>
+      </c>
+      <c r="R7" t="n">
+        <v>45.09396743774414</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -760,6 +898,24 @@
       <c r="L8" t="n">
         <v>51.99828720092773</v>
       </c>
+      <c r="M8" t="n">
+        <v>20.92214363686499</v>
+      </c>
+      <c r="N8" t="n">
+        <v>43.97821817186333</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.6368629636759039</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-4.86707871601974</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-7.398602135868612</v>
+      </c>
+      <c r="R8" t="n">
+        <v>51.99781799316406</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -798,6 +954,24 @@
       <c r="L9" t="n">
         <v>58.77538299560547</v>
       </c>
+      <c r="M9" t="n">
+        <v>23.46207353512964</v>
+      </c>
+      <c r="N9" t="n">
+        <v>48.52641567285352</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.6155802284354891</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-1.151650929073588</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-11.44636333611862</v>
+      </c>
+      <c r="R9" t="n">
+        <v>58.77489471435547</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -836,6 +1010,24 @@
       <c r="L10" t="n">
         <v>65.43683242797852</v>
       </c>
+      <c r="M10" t="n">
+        <v>25.87950349517854</v>
+      </c>
+      <c r="N10" t="n">
+        <v>52.73598124067365</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.5568664128751782</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-2.706559494096631</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-9.91568416457374</v>
+      </c>
+      <c r="R10" t="n">
+        <v>65.43637466430664</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -874,6 +1066,24 @@
       <c r="L11" t="n">
         <v>71.99113464355469</v>
       </c>
+      <c r="M11" t="n">
+        <v>28.17421769491855</v>
+      </c>
+      <c r="N11" t="n">
+        <v>56.62992462975743</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.4579472648235108</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-11.10675576013397</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-1.24878530801927</v>
+      </c>
+      <c r="R11" t="n">
+        <v>71.99065399169922</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -912,6 +1122,24 @@
       <c r="L12" t="n">
         <v>78.44431686401367</v>
       </c>
+      <c r="M12" t="n">
+        <v>30.34655208348487</v>
+      </c>
+      <c r="N12" t="n">
+        <v>60.22913898614451</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.3161639022554277</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-15.02197367230302</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3.206317049362655</v>
+      </c>
+      <c r="R12" t="n">
+        <v>78.44387054443359</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -950,6 +1178,24 @@
       <c r="L13" t="n">
         <v>84.80033111572266</v>
       </c>
+      <c r="M13" t="n">
+        <v>32.39721884706579</v>
+      </c>
+      <c r="N13" t="n">
+        <v>63.5527262966259</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.1289727080549086</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-8.130452540628349</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-2.890642728260394</v>
+      </c>
+      <c r="R13" t="n">
+        <v>84.79987716674805</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -988,6 +1234,24 @@
       <c r="L14" t="n">
         <v>91.06110763549805</v>
       </c>
+      <c r="M14" t="n">
+        <v>34.32722351366025</v>
+      </c>
+      <c r="N14" t="n">
+        <v>66.61835476897262</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.1060505415264105</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-10.22044780235358</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.2295184410849167</v>
+      </c>
+      <c r="R14" t="n">
+        <v>91.06069946289062</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1026,6 +1290,24 @@
       <c r="L15" t="n">
         <v>97.22698593139648</v>
       </c>
+      <c r="M15" t="n">
+        <v>36.13778272255374</v>
+      </c>
+      <c r="N15" t="n">
+        <v>69.4424973433856</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.3912042585328053</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-2.709027415325494</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-6.035860076871266</v>
+      </c>
+      <c r="R15" t="n">
+        <v>97.22659683227539</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1064,6 +1346,24 @@
       <c r="L16" t="n">
         <v>103.2968368530273</v>
       </c>
+      <c r="M16" t="n">
+        <v>37.83030164711874</v>
+      </c>
+      <c r="N16" t="n">
+        <v>72.04069773567647</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.7286526858171909</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-1.44180930618176</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-5.861387379129873</v>
+      </c>
+      <c r="R16" t="n">
+        <v>103.2964553833008</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1102,6 +1402,24 @@
       <c r="L17" t="n">
         <v>109.2682075500488</v>
       </c>
+      <c r="M17" t="n">
+        <v>39.4063376860623</v>
+      </c>
+      <c r="N17" t="n">
+        <v>74.42773623900253</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.120416006880472</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.594588950126675</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-8.281245172355183</v>
+      </c>
+      <c r="R17" t="n">
+        <v>109.2678337097168</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1140,6 +1458,24 @@
       <c r="L18" t="n">
         <v>115.1377716064453</v>
       </c>
+      <c r="M18" t="n">
+        <v>40.86762514417845</v>
+      </c>
+      <c r="N18" t="n">
+        <v>76.61785998163313</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.568360648622674</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.334105162174867</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-6.250499764734124</v>
+      </c>
+      <c r="R18" t="n">
+        <v>115.137451171875</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1178,6 +1514,24 @@
       <c r="L19" t="n">
         <v>120.901439666748</v>
       </c>
+      <c r="M19" t="n">
+        <v>42.21605013536568</v>
+      </c>
+      <c r="N19" t="n">
+        <v>78.62486569910209</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.074188266684489</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.878061168056044</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-6.892057481122358</v>
+      </c>
+      <c r="R19" t="n">
+        <v>120.9011077880859</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1216,6 +1570,24 @@
       <c r="L20" t="n">
         <v>126.554500579834</v>
       </c>
+      <c r="M20" t="n">
+        <v>43.45370011224288</v>
+      </c>
+      <c r="N20" t="n">
+        <v>80.46229156481445</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.639427391389106</v>
+      </c>
+      <c r="P20" t="n">
+        <v>6.546331026550692</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-6.547527988063538</v>
+      </c>
+      <c r="R20" t="n">
+        <v>126.5542221069336</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1254,6 +1626,24 @@
       <c r="L21" t="n">
         <v>132.0921249389648</v>
       </c>
+      <c r="M21" t="n">
+        <v>44.58285847147758</v>
+      </c>
+      <c r="N21" t="n">
+        <v>82.14347209817514</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3.26542406578863</v>
+      </c>
+      <c r="P21" t="n">
+        <v>15.83512975879784</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-13.73506081635833</v>
+      </c>
+      <c r="R21" t="n">
+        <v>132.0918235778809</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1292,6 +1682,24 @@
       <c r="L22" t="n">
         <v>137.5093116760254</v>
       </c>
+      <c r="M22" t="n">
+        <v>45.60605404668529</v>
+      </c>
+      <c r="N22" t="n">
+        <v>83.68166701395403</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3.953337023514443</v>
+      </c>
+      <c r="P22" t="n">
+        <v>19.50501191755539</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-15.23705205737322</v>
+      </c>
+      <c r="R22" t="n">
+        <v>137.5090179443359</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1330,6 +1738,24 @@
       <c r="L23" t="n">
         <v>142.8012886047363</v>
       </c>
+      <c r="M23" t="n">
+        <v>46.52606239894012</v>
+      </c>
+      <c r="N23" t="n">
+        <v>85.09008192128738</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4.704132238104859</v>
+      </c>
+      <c r="P23" t="n">
+        <v>12.92309410624405</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-6.442364347437726</v>
+      </c>
+      <c r="R23" t="n">
+        <v>142.8010063171387</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1368,6 +1794,24 @@
       <c r="L24" t="n">
         <v>147.963752746582</v>
       </c>
+      <c r="M24" t="n">
+        <v>47.3459466510597</v>
+      </c>
+      <c r="N24" t="n">
+        <v>86.38194262484595</v>
+      </c>
+      <c r="O24" t="n">
+        <v>5.518582996870859</v>
+      </c>
+      <c r="P24" t="n">
+        <v>14.42053708717406</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-5.703542715663461</v>
+      </c>
+      <c r="R24" t="n">
+        <v>147.9634666442871</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1406,6 +1850,24 @@
       <c r="L25" t="n">
         <v>152.9930305480957</v>
       </c>
+      <c r="M25" t="n">
+        <v>48.06907751870911</v>
+      </c>
+      <c r="N25" t="n">
+        <v>87.57051582213582</v>
+      </c>
+      <c r="O25" t="n">
+        <v>6.397272140149222</v>
+      </c>
+      <c r="P25" t="n">
+        <v>14.42734537812162</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-3.471458783920466</v>
+      </c>
+      <c r="R25" t="n">
+        <v>152.9927520751953</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1444,6 +1906,24 @@
       <c r="L26" t="n">
         <v>157.8863868713379</v>
       </c>
+      <c r="M26" t="n">
+        <v>48.69914969488341</v>
+      </c>
+      <c r="N26" t="n">
+        <v>88.669109640408</v>
+      </c>
+      <c r="O26" t="n">
+        <v>7.340597757066631</v>
+      </c>
+      <c r="P26" t="n">
+        <v>16.11294296266098</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-2.935718359462381</v>
+      </c>
+      <c r="R26" t="n">
+        <v>157.8860816955566</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1482,6 +1962,24 @@
       <c r="L27" t="n">
         <v>162.6421394348145</v>
       </c>
+      <c r="M27" t="n">
+        <v>49.24021122184715</v>
+      </c>
+      <c r="N27" t="n">
+        <v>89.6910917712766</v>
+      </c>
+      <c r="O27" t="n">
+        <v>8.348785112175275</v>
+      </c>
+      <c r="P27" t="n">
+        <v>17.74156782790029</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-2.379787341890729</v>
+      </c>
+      <c r="R27" t="n">
+        <v>162.6418685913086</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1520,6 +2018,24 @@
       <c r="L28" t="n">
         <v>167.2601623535156</v>
       </c>
+      <c r="M28" t="n">
+        <v>49.69666637151285</v>
+      </c>
+      <c r="N28" t="n">
+        <v>90.64985037194099</v>
+      </c>
+      <c r="O28" t="n">
+        <v>9.421900155444646</v>
+      </c>
+      <c r="P28" t="n">
+        <v>20.22825910061171</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-2.736841709959393</v>
+      </c>
+      <c r="R28" t="n">
+        <v>167.2598342895508</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1558,6 +2074,24 @@
       <c r="L29" t="n">
         <v>171.7417831420898</v>
       </c>
+      <c r="M29" t="n">
+        <v>50.0733130711981</v>
+      </c>
+      <c r="N29" t="n">
+        <v>91.55881381025112</v>
+      </c>
+      <c r="O29" t="n">
+        <v>10.55987457973081</v>
+      </c>
+      <c r="P29" t="n">
+        <v>18.54343775114203</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.006031124592003</v>
+      </c>
+      <c r="R29" t="n">
+        <v>171.7414703369141</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1596,6 +2130,24 @@
       <c r="L30" t="n">
         <v>176.0902900695801</v>
       </c>
+      <c r="M30" t="n">
+        <v>50.37531913131905</v>
+      </c>
+      <c r="N30" t="n">
+        <v>92.4313580373133</v>
+      </c>
+      <c r="O30" t="n">
+        <v>11.76252598662108</v>
+      </c>
+      <c r="P30" t="n">
+        <v>24.29009409600536</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-2.769331430946298</v>
+      </c>
+      <c r="R30" t="n">
+        <v>176.0899658203125</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1634,6 +2186,24 @@
       <c r="L31" t="n">
         <v>180.3110580444336</v>
       </c>
+      <c r="M31" t="n">
+        <v>50.60825632177763</v>
+      </c>
+      <c r="N31" t="n">
+        <v>93.28082382559757</v>
+      </c>
+      <c r="O31" t="n">
+        <v>13.02959540932144</v>
+      </c>
+      <c r="P31" t="n">
+        <v>25.60707102350264</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-2.215043302611395</v>
+      </c>
+      <c r="R31" t="n">
+        <v>180.3107032775879</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1672,6 +2242,24 @@
       <c r="L32" t="n">
         <v>184.4117317199707</v>
       </c>
+      <c r="M32" t="n">
+        <v>50.7780909604415</v>
+      </c>
+      <c r="N32" t="n">
+        <v>94.12045242536412</v>
+      </c>
+      <c r="O32" t="n">
+        <v>14.36078319249182</v>
+      </c>
+      <c r="P32" t="n">
+        <v>26.96128558761309</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-1.809239027482803</v>
+      </c>
+      <c r="R32" t="n">
+        <v>184.4113731384277</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1710,6 +2298,24 @@
       <c r="L33" t="n">
         <v>188.4026374816895</v>
       </c>
+      <c r="M33" t="n">
+        <v>50.89119278894579</v>
+      </c>
+      <c r="N33" t="n">
+        <v>94.96336641672308</v>
+      </c>
+      <c r="O33" t="n">
+        <v>15.75579646584316</v>
+      </c>
+      <c r="P33" t="n">
+        <v>26.21103225405798</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.580906233365539</v>
+      </c>
+      <c r="R33" t="n">
+        <v>188.4022941589355</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1748,6 +2354,24 @@
       <c r="L34" t="n">
         <v>192.2969169616699</v>
       </c>
+      <c r="M34" t="n">
+        <v>50.95432126938289</v>
+      </c>
+      <c r="N34" t="n">
+        <v>95.82251678297847</v>
+      </c>
+      <c r="O34" t="n">
+        <v>17.21439748856703</v>
+      </c>
+      <c r="P34" t="n">
+        <v>23.16561147836176</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5.139692287350456</v>
+      </c>
+      <c r="R34" t="n">
+        <v>192.2965393066406</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1786,6 +2410,24 @@
       <c r="L35" t="n">
         <v>196.1106948852539</v>
       </c>
+      <c r="M35" t="n">
+        <v>50.97463635115494</v>
+      </c>
+      <c r="N35" t="n">
+        <v>96.71068349243804</v>
+      </c>
+      <c r="O35" t="n">
+        <v>18.73646706619451</v>
+      </c>
+      <c r="P35" t="n">
+        <v>21.82746866317223</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>7.861061657264898</v>
+      </c>
+      <c r="R35" t="n">
+        <v>196.1103172302246</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1824,6 +2466,24 @@
       <c r="L36" t="n">
         <v>199.8634757995605</v>
       </c>
+      <c r="M36" t="n">
+        <v>50.95967912111068</v>
+      </c>
+      <c r="N36" t="n">
+        <v>97.6404352561232</v>
+      </c>
+      <c r="O36" t="n">
+        <v>20.32206586783745</v>
+      </c>
+      <c r="P36" t="n">
+        <v>18.87066995680524</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>12.07022505447107</v>
+      </c>
+      <c r="R36" t="n">
+        <v>199.8630752563477</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1862,6 +2522,24 @@
       <c r="L37" t="n">
         <v>203.578239440918</v>
       </c>
+      <c r="M37" t="n">
+        <v>50.91737829524613</v>
+      </c>
+      <c r="N37" t="n">
+        <v>98.62414975571171</v>
+      </c>
+      <c r="O37" t="n">
+        <v>21.97151170549029</v>
+      </c>
+      <c r="P37" t="n">
+        <v>23.32402768138902</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>8.740794348051523</v>
+      </c>
+      <c r="R37" t="n">
+        <v>203.5778617858887</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1900,6 +2578,24 @@
       <c r="L38" t="n">
         <v>207.2818603515625</v>
       </c>
+      <c r="M38" t="n">
+        <v>50.85603178223835</v>
+      </c>
+      <c r="N38" t="n">
+        <v>99.67400190577537</v>
+      </c>
+      <c r="O38" t="n">
+        <v>23.68545487455079</v>
+      </c>
+      <c r="P38" t="n">
+        <v>25.35183022524254</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>7.714129576450773</v>
+      </c>
+      <c r="R38" t="n">
+        <v>207.2814483642578</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1938,6 +2634,24 @@
       <c r="L39" t="n">
         <v>211.0051460266113</v>
       </c>
+      <c r="M39" t="n">
+        <v>50.78431975846713</v>
+      </c>
+      <c r="N39" t="n">
+        <v>100.8020250361627</v>
+      </c>
+      <c r="O39" t="n">
+        <v>25.46497286390467</v>
+      </c>
+      <c r="P39" t="n">
+        <v>29.04019132038459</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4.913240319176573</v>
+      </c>
+      <c r="R39" t="n">
+        <v>211.0047492980957</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1976,6 +2690,24 @@
       <c r="L40" t="n">
         <v>214.7832946777344</v>
       </c>
+      <c r="M40" t="n">
+        <v>50.71128108227848</v>
+      </c>
+      <c r="N40" t="n">
+        <v>102.0201137518269</v>
+      </c>
+      <c r="O40" t="n">
+        <v>27.31165501204498</v>
+      </c>
+      <c r="P40" t="n">
+        <v>31.36373950843163</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3.376074262361328</v>
+      </c>
+      <c r="R40" t="n">
+        <v>214.7828636169434</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2014,6 +2746,24 @@
       <c r="L41" t="n">
         <v>218.6558570861816</v>
       </c>
+      <c r="M41" t="n">
+        <v>50.6463264172092</v>
+      </c>
+      <c r="N41" t="n">
+        <v>103.3401114529309</v>
+      </c>
+      <c r="O41" t="n">
+        <v>29.22770832370473</v>
+      </c>
+      <c r="P41" t="n">
+        <v>30.13871147991957</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5.30259505450713</v>
+      </c>
+      <c r="R41" t="n">
+        <v>218.6554527282715</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2052,6 +2802,24 @@
       <c r="L42" t="n">
         <v>222.6673202514648</v>
       </c>
+      <c r="M42" t="n">
+        <v>50.59923280148355</v>
+      </c>
+      <c r="N42" t="n">
+        <v>104.7738653254296</v>
+      </c>
+      <c r="O42" t="n">
+        <v>31.2160581230723</v>
+      </c>
+      <c r="P42" t="n">
+        <v>31.96316730054633</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4.114569454839359</v>
+      </c>
+      <c r="R42" t="n">
+        <v>222.6668930053711</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2090,6 +2858,24 @@
       <c r="L43" t="n">
         <v>226.8670349121094</v>
       </c>
+      <c r="M43" t="n">
+        <v>50.58016156639793</v>
+      </c>
+      <c r="N43" t="n">
+        <v>106.333332787629</v>
+      </c>
+      <c r="O43" t="n">
+        <v>33.28046345252397</v>
+      </c>
+      <c r="P43" t="n">
+        <v>37.59957025164955</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-0.9269089480930006</v>
+      </c>
+      <c r="R43" t="n">
+        <v>226.8666191101074</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2128,6 +2914,24 @@
       <c r="L44" t="n">
         <v>231.3097229003906</v>
       </c>
+      <c r="M44" t="n">
+        <v>50.5996679551192</v>
+      </c>
+      <c r="N44" t="n">
+        <v>108.0306711330579</v>
+      </c>
+      <c r="O44" t="n">
+        <v>35.42562830502613</v>
+      </c>
+      <c r="P44" t="n">
+        <v>32.95092823028576</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4.302415289596958</v>
+      </c>
+      <c r="R44" t="n">
+        <v>231.3093109130859</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2166,6 +2970,24 @@
       <c r="L45" t="n">
         <v>236.0554885864258</v>
       </c>
+      <c r="M45" t="n">
+        <v>50.66871834970888</v>
+      </c>
+      <c r="N45" t="n">
+        <v>109.8783324624514</v>
+      </c>
+      <c r="O45" t="n">
+        <v>37.6573150776836</v>
+      </c>
+      <c r="P45" t="n">
+        <v>38.95068981231365</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-1.099963844247355</v>
+      </c>
+      <c r="R45" t="n">
+        <v>236.0550918579102</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2204,6 +3026,24 @@
       <c r="L46" t="n">
         <v>241.1702842712402</v>
       </c>
+      <c r="M46" t="n">
+        <v>50.79873332389754</v>
+      </c>
+      <c r="N46" t="n">
+        <v>111.8891972884438</v>
+      </c>
+      <c r="O46" t="n">
+        <v>39.98247140993743</v>
+      </c>
+      <c r="P46" t="n">
+        <v>39.959916765741</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-1.460412171808869</v>
+      </c>
+      <c r="R46" t="n">
+        <v>241.1699066162109</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2242,6 +3082,24 @@
       <c r="L47" t="n">
         <v>246.7259635925293</v>
       </c>
+      <c r="M47" t="n">
+        <v>51.00161387726335</v>
+      </c>
+      <c r="N47" t="n">
+        <v>114.0766491757738</v>
+      </c>
+      <c r="O47" t="n">
+        <v>42.40933845447351</v>
+      </c>
+      <c r="P47" t="n">
+        <v>45.24389668448718</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-6.005881736919683</v>
+      </c>
+      <c r="R47" t="n">
+        <v>246.7256164550781</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2280,6 +3138,24 @@
       <c r="L48" t="n">
         <v>252.8006744384766</v>
       </c>
+      <c r="M48" t="n">
+        <v>51.28980134483344</v>
+      </c>
+      <c r="N48" t="n">
+        <v>116.4546914588234</v>
+      </c>
+      <c r="O48" t="n">
+        <v>44.94757444082678</v>
+      </c>
+      <c r="P48" t="n">
+        <v>49.85474709360027</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-9.746464148874871</v>
+      </c>
+      <c r="R48" t="n">
+        <v>252.800350189209</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2318,6 +3194,24 @@
       <c r="L49" t="n">
         <v>259.4790382385254</v>
       </c>
+      <c r="M49" t="n">
+        <v>51.67633661949835</v>
+      </c>
+      <c r="N49" t="n">
+        <v>119.0380185098148</v>
+      </c>
+      <c r="O49" t="n">
+        <v>47.60836561525953</v>
+      </c>
+      <c r="P49" t="n">
+        <v>52.73868556185376</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-11.58268850247136</v>
+      </c>
+      <c r="R49" t="n">
+        <v>259.4787178039551</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2356,6 +3250,24 @@
       <c r="L50" t="n">
         <v>266.8522987365723</v>
       </c>
+      <c r="M50" t="n">
+        <v>52.17493120325758</v>
+      </c>
+      <c r="N50" t="n">
+        <v>121.8420667841496</v>
+      </c>
+      <c r="O50" t="n">
+        <v>50.40453176360143</v>
+      </c>
+      <c r="P50" t="n">
+        <v>56.01896805840558</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-13.58846991634778</v>
+      </c>
+      <c r="R50" t="n">
+        <v>266.8520278930664</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2394,6 +3306,24 @@
       <c r="L51" t="n">
         <v>275.0188179016113</v>
       </c>
+      <c r="M51" t="n">
+        <v>52.80005704271044</v>
+      </c>
+      <c r="N51" t="n">
+        <v>124.8830409653908</v>
+      </c>
+      <c r="O51" t="n">
+        <v>53.35062918123571</v>
+      </c>
+      <c r="P51" t="n">
+        <v>54.65788021755498</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-10.67304508999738</v>
+      </c>
+      <c r="R51" t="n">
+        <v>275.0185623168945</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2432,6 +3362,24 @@
       <c r="L52" t="n">
         <v>284.0841445922852</v>
       </c>
+      <c r="M52" t="n">
+        <v>53.56705101257273</v>
+      </c>
+      <c r="N52" t="n">
+        <v>128.1779190601427</v>
+      </c>
+      <c r="O52" t="n">
+        <v>56.46304867492017</v>
+      </c>
+      <c r="P52" t="n">
+        <v>57.28447113010218</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-11.40860468486665</v>
+      </c>
+      <c r="R52" t="n">
+        <v>284.0838851928711</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2470,6 +3418,24 @@
       <c r="L53" t="n">
         <v>294.1611862182617</v>
       </c>
+      <c r="M53" t="n">
+        <v>54.49221356186639</v>
+      </c>
+      <c r="N53" t="n">
+        <v>131.7443553236375</v>
+      </c>
+      <c r="O53" t="n">
+        <v>59.76008323644295</v>
+      </c>
+      <c r="P53" t="n">
+        <v>62.26773108425773</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-14.10346401675145</v>
+      </c>
+      <c r="R53" t="n">
+        <v>294.1609191894531</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2508,6 +3474,24 @@
       <c r="L54" t="n">
         <v>305.3706665039062</v>
       </c>
+      <c r="M54" t="n">
+        <v>55.59295395312216</v>
+      </c>
+      <c r="N54" t="n">
+        <v>135.6006181794739</v>
+      </c>
+      <c r="O54" t="n">
+        <v>63.26202014944737</v>
+      </c>
+      <c r="P54" t="n">
+        <v>62.9052622936104</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-11.99043221237255</v>
+      </c>
+      <c r="R54" t="n">
+        <v>305.3704223632812</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2546,6 +3530,24 @@
       <c r="L55" t="n">
         <v>317.8412475585938</v>
       </c>
+      <c r="M55" t="n">
+        <v>56.88790922031462</v>
+      </c>
+      <c r="N55" t="n">
+        <v>139.7653780343248</v>
+      </c>
+      <c r="O55" t="n">
+        <v>66.99117996792434</v>
+      </c>
+      <c r="P55" t="n">
+        <v>66.48765773267448</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-12.29112153726943</v>
+      </c>
+      <c r="R55" t="n">
+        <v>317.8410034179688</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2584,6 +3586,24 @@
       <c r="L56" t="n">
         <v>331.7098121643066</v>
       </c>
+      <c r="M56" t="n">
+        <v>58.39711410144646</v>
+      </c>
+      <c r="N56" t="n">
+        <v>144.2575215346422</v>
+      </c>
+      <c r="O56" t="n">
+        <v>70.97198665594554</v>
+      </c>
+      <c r="P56" t="n">
+        <v>69.60218962945648</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-11.51921719492816</v>
+      </c>
+      <c r="R56" t="n">
+        <v>331.7095947265625</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2622,6 +3642,24 @@
       <c r="L57" t="n">
         <v>347.1216926574707</v>
       </c>
+      <c r="M57" t="n">
+        <v>60.14213969607746</v>
+      </c>
+      <c r="N57" t="n">
+        <v>149.0958012457619</v>
+      </c>
+      <c r="O57" t="n">
+        <v>75.23097863469856</v>
+      </c>
+      <c r="P57" t="n">
+        <v>71.82247573097543</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-9.169962049456736</v>
+      </c>
+      <c r="R57" t="n">
+        <v>347.1214332580566</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2660,6 +3698,24 @@
       <c r="L58" t="n">
         <v>364.2309455871582</v>
       </c>
+      <c r="M58" t="n">
+        <v>62.14629767537165</v>
+      </c>
+      <c r="N58" t="n">
+        <v>154.2985442933708</v>
+      </c>
+      <c r="O58" t="n">
+        <v>79.79687437486207</v>
+      </c>
+      <c r="P58" t="n">
+        <v>75.05548118446104</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-7.066515155018621</v>
+      </c>
+      <c r="R58" t="n">
+        <v>364.2306823730469</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2698,6 +3754,24 @@
       <c r="L59" t="n">
         <v>383.2005462646484</v>
       </c>
+      <c r="M59" t="n">
+        <v>64.43478076192234</v>
+      </c>
+      <c r="N59" t="n">
+        <v>159.8831110161343</v>
+      </c>
+      <c r="O59" t="n">
+        <v>84.70054251598302</v>
+      </c>
+      <c r="P59" t="n">
+        <v>77.11295915994845</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-2.931179068001697</v>
+      </c>
+      <c r="R59" t="n">
+        <v>383.2002143859863</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2736,6 +3810,24 @@
       <c r="L60" t="n">
         <v>404.2027168273926</v>
       </c>
+      <c r="M60" t="n">
+        <v>67.03489267834807</v>
+      </c>
+      <c r="N60" t="n">
+        <v>165.8654677970296</v>
+      </c>
+      <c r="O60" t="n">
+        <v>89.97506590738271</v>
+      </c>
+      <c r="P60" t="n">
+        <v>82.85013456553192</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-1.523210331837191</v>
+      </c>
+      <c r="R60" t="n">
+        <v>404.2023506164551</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2774,6 +3866,24 @@
       <c r="L61" t="n">
         <v>427.4191970825195</v>
       </c>
+      <c r="M61" t="n">
+        <v>69.97620649816965</v>
+      </c>
+      <c r="N61" t="n">
+        <v>172.2594904906574</v>
+      </c>
+      <c r="O61" t="n">
+        <v>95.65570318081379</v>
+      </c>
+      <c r="P61" t="n">
+        <v>85.64779766882613</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3.879495704013522</v>
+      </c>
+      <c r="R61" t="n">
+        <v>427.4186935424805</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2812,6 +3922,24 @@
       <c r="L62" t="n">
         <v>453.0412940979004</v>
       </c>
+      <c r="M62" t="n">
+        <v>73.29078780759797</v>
+      </c>
+      <c r="N62" t="n">
+        <v>179.0763198882367</v>
+      </c>
+      <c r="O62" t="n">
+        <v>101.7799272138646</v>
+      </c>
+      <c r="P62" t="n">
+        <v>90.77080911818813</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>8.122843533147716</v>
+      </c>
+      <c r="R62" t="n">
+        <v>453.0406875610352</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2849,6 +3977,24 @@
       </c>
       <c r="L63" t="n">
         <v>481.2703971862793</v>
+      </c>
+      <c r="M63" t="n">
+        <v>77.0133771748919</v>
+      </c>
+      <c r="N63" t="n">
+        <v>186.3235024811556</v>
+      </c>
+      <c r="O63" t="n">
+        <v>108.3874035574282</v>
+      </c>
+      <c r="P63" t="n">
+        <v>30.73900483463625</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>78.80636145750329</v>
+      </c>
+      <c r="R63" t="n">
+        <v>481.2696495056152</v>
       </c>
     </row>
   </sheetData>
